--- a/regionseng/8/environmental protection/environmental protection.xlsx
+++ b/regionseng/8/environmental protection/environmental protection.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17112" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Kvemo Kartli" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -100,21 +100,22 @@
     </r>
   </si>
   <si>
-    <t>Forest area* - 146 thousand hectares</t>
-  </si>
-  <si>
-    <t>Of which covered by forest* - 133 thousand hectares</t>
+    <t>Forest area* - 145 thousand hectares</t>
+  </si>
+  <si>
+    <t>Of which covered by forest* - 132 thousand hectares</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +203,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,11 +307,15 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -326,6 +338,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,71 +647,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="3" customWidth="1"/>
-    <col min="2" max="8" width="9.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60.6640625" style="3" customWidth="1"/>
+    <col min="2" max="8" width="9.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="14">
         <v>2013</v>
@@ -721,8 +743,14 @@
       <c r="I5" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="14">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -750,8 +778,14 @@
       <c r="I6" s="9">
         <v>36536</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="9">
+        <v>36867.5</v>
+      </c>
+      <c r="K6" s="9">
+        <v>34634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -779,8 +813,14 @@
       <c r="I7" s="15">
         <v>656</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="15">
+        <v>1312.9</v>
+      </c>
+      <c r="K7" s="15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -808,8 +848,14 @@
       <c r="I8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -837,8 +883,14 @@
       <c r="I9" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="11">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K9" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -854,20 +906,26 @@
       <c r="E10" s="16">
         <v>337.6</v>
       </c>
-      <c r="F10" s="16">
-        <v>347.6</v>
-      </c>
-      <c r="G10" s="16">
-        <v>333.1</v>
+      <c r="F10" s="30">
+        <v>348</v>
+      </c>
+      <c r="G10" s="30">
+        <v>342</v>
       </c>
       <c r="H10" s="16">
-        <v>312.60000000000002</v>
+        <v>325.7</v>
       </c>
       <c r="I10" s="16">
-        <v>337.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342.7</v>
+      </c>
+      <c r="J10" s="16">
+        <v>373.3</v>
+      </c>
+      <c r="K10" s="16">
+        <v>378.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -879,8 +937,10 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -897,19 +957,25 @@
         <v>326.39999999999998</v>
       </c>
       <c r="F12" s="16">
-        <v>335.8</v>
+        <v>335.6</v>
       </c>
       <c r="G12" s="16">
-        <v>322.2</v>
+        <v>328.7</v>
       </c>
       <c r="H12" s="16">
-        <v>301</v>
+        <v>312.60000000000002</v>
       </c>
       <c r="I12" s="16">
-        <v>319.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>328.2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>349.4</v>
+      </c>
+      <c r="K12" s="16">
+        <v>356.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -926,108 +992,176 @@
         <v>11.3</v>
       </c>
       <c r="F13" s="17">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="G13" s="17">
-        <v>10.9</v>
+        <v>13.3</v>
       </c>
       <c r="H13" s="17">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="I13" s="17">
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+        <v>14.6</v>
+      </c>
+      <c r="J13" s="17">
+        <v>23.9</v>
+      </c>
+      <c r="K13" s="17">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/8/environmental protection/environmental protection.xlsx
+++ b/regionseng/8/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17112" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Kvemo Kartli" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -314,34 +314,34 @@
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,77 +647,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.6640625" style="3" customWidth="1"/>
-    <col min="2" max="8" width="9.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="60.7109375" style="3" customWidth="1"/>
+    <col min="2" max="8" width="9.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="14">
         <v>2013</v>
@@ -749,8 +755,11 @@
       <c r="K5" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,8 +793,11 @@
       <c r="K6" s="9">
         <v>34634</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="9">
+        <v>32893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -819,8 +831,11 @@
       <c r="K7" s="15">
         <v>560</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="K8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -889,8 +907,11 @@
       <c r="K9" s="11">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -906,10 +927,10 @@
       <c r="E10" s="16">
         <v>337.6</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="21">
         <v>348</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="21">
         <v>342</v>
       </c>
       <c r="H10" s="16">
@@ -922,10 +943,13 @@
         <v>373.3</v>
       </c>
       <c r="K10" s="16">
-        <v>378.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>440.4</v>
+      </c>
+      <c r="L10" s="16">
+        <v>452.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>4</v>
       </c>
@@ -939,8 +963,9 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -972,10 +997,13 @@
         <v>349.4</v>
       </c>
       <c r="K12" s="16">
-        <v>356.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>417.9</v>
+      </c>
+      <c r="L12" s="16">
+        <v>425.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1009,92 +1037,107 @@
       <c r="K13" s="17">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="L13" s="17">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -1102,7 +1145,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -1110,7 +1153,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
@@ -1118,7 +1161,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -1126,7 +1169,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -1134,7 +1177,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -1142,7 +1185,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -1152,16 +1195,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
